--- a/client/simulations/tests/no_data.xlsx
+++ b/client/simulations/tests/no_data.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Input Values" sheetId="1" r:id="rId1"/>
+    <sheet name="% Change and qNet" sheetId="2" r:id="rId2"/>
+    <sheet name="PKPD - APD90 vs. Timepoint" sheetId="3" r:id="rId3"/>
+    <sheet name="Voltage Traces (concentration)" sheetId="4" r:id="rId4"/>
+    <sheet name="Voltage Traces (Plot format)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Title</t>
   </si>
@@ -25,7 +29,7 @@
     <t>Created at</t>
   </si>
   <si>
-    <t>2022-03-09 12:41:33.748731</t>
+    <t>2022-03-09 15:22:08.576962</t>
   </si>
   <si>
     <t>Created by</t>
@@ -122,6 +126,36 @@
   </si>
   <si>
     <t>some notes</t>
+  </si>
+  <si>
+    <t>Concentration (µM)</t>
+  </si>
+  <si>
+    <t>Δ APD90 (%)</t>
+  </si>
+  <si>
+    <t>qNet (C/F)</t>
+  </si>
+  <si>
+    <t>PeakVm(mV)</t>
+  </si>
+  <si>
+    <t>UpstrokeVelocity(mV/ms)</t>
+  </si>
+  <si>
+    <t>APD50(ms)</t>
+  </si>
+  <si>
+    <t>APD90(ms)</t>
+  </si>
+  <si>
+    <t>Timepoint (h)</t>
+  </si>
+  <si>
+    <t>APD90 (ms)</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
   </si>
 </sst>
 </file>
@@ -731,4 +765,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>